--- a/Code/Results/Cases/Case_1_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27513865205576</v>
+        <v>7.782637532668057</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.701182980154691</v>
+        <v>4.130189461739612</v>
       </c>
       <c r="E2">
-        <v>29.91341394237083</v>
+        <v>16.52654179159011</v>
       </c>
       <c r="F2">
-        <v>19.40041633357098</v>
+        <v>22.33544634103874</v>
       </c>
       <c r="G2">
-        <v>2.055012734119812</v>
+        <v>3.608341058757886</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.70744652549752</v>
+        <v>11.08149156305305</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.68675963200918</v>
+        <v>17.59696812025692</v>
       </c>
       <c r="O2">
-        <v>14.87424818540811</v>
+        <v>19.7886948003225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.913787431615027</v>
+        <v>7.709626176934995</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.602026089151829</v>
+        <v>4.095399305861559</v>
       </c>
       <c r="E3">
-        <v>27.73656618020696</v>
+        <v>15.58699721510027</v>
       </c>
       <c r="F3">
-        <v>18.61485140049641</v>
+        <v>22.26299637456494</v>
       </c>
       <c r="G3">
-        <v>2.060987159042566</v>
+        <v>3.610525931659404</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.65895479814646</v>
+        <v>10.55227450858571</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.88219231356648</v>
+        <v>17.65680227979854</v>
       </c>
       <c r="O3">
-        <v>14.49037651742298</v>
+        <v>19.80072070309436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.685278445713933</v>
+        <v>7.66628926026857</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.5392098747627</v>
+        <v>4.073585185786377</v>
       </c>
       <c r="E4">
-        <v>26.3368656301767</v>
+        <v>14.98516023932362</v>
       </c>
       <c r="F4">
-        <v>18.13829448992433</v>
+        <v>22.22593950654022</v>
       </c>
       <c r="G4">
-        <v>2.064752304378208</v>
+        <v>3.611937223591782</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.98228403004943</v>
+        <v>10.21127959792869</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.00515100329871</v>
+        <v>17.69538809553978</v>
       </c>
       <c r="O4">
-        <v>14.26764906021905</v>
+        <v>19.81393917279548</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.590619872735895</v>
+        <v>7.649024257641219</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.513150354042169</v>
+        <v>4.064585785037426</v>
       </c>
       <c r="E5">
-        <v>25.75027225904678</v>
+        <v>14.7339012490767</v>
       </c>
       <c r="F5">
-        <v>17.94578842088358</v>
+        <v>22.21271560735728</v>
       </c>
       <c r="G5">
-        <v>2.066312008502318</v>
+        <v>3.612529941715195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.69830629971913</v>
+        <v>10.06838083233162</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.05602222411035</v>
+        <v>17.71157799854197</v>
       </c>
       <c r="O5">
-        <v>14.1801516403007</v>
+        <v>19.82078864353196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.574813125045011</v>
+        <v>7.646181849195955</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.50879608438671</v>
+        <v>4.063084914304797</v>
       </c>
       <c r="E6">
-        <v>25.65188078871864</v>
+        <v>14.69182607629404</v>
       </c>
       <c r="F6">
-        <v>17.91393271821381</v>
+        <v>22.21063337945532</v>
       </c>
       <c r="G6">
-        <v>2.066572557733518</v>
+        <v>3.612629427202085</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.65065676502024</v>
+        <v>10.04441775160321</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.06451608970914</v>
+        <v>17.71429449613002</v>
       </c>
       <c r="O6">
-        <v>14.16581994038724</v>
+        <v>19.82201420140297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.684007892731736</v>
+        <v>7.666054792763623</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.538860261024858</v>
+        <v>4.073464256823239</v>
       </c>
       <c r="E7">
-        <v>26.32902066479406</v>
+        <v>14.98179559437641</v>
       </c>
       <c r="F7">
-        <v>18.13569109065247</v>
+        <v>22.22575355396352</v>
       </c>
       <c r="G7">
-        <v>2.064773235029755</v>
+        <v>3.61194514583239</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.97848745060002</v>
+        <v>10.20936823069637</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.00583394922459</v>
+        <v>17.69560455019635</v>
       </c>
       <c r="O7">
-        <v>14.26645581761186</v>
+        <v>19.81402563060763</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.151993995656883</v>
+        <v>7.757165623521593</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.667409263343504</v>
+        <v>4.118290118392514</v>
       </c>
       <c r="E8">
-        <v>29.17572596160961</v>
+        <v>16.20791151230536</v>
       </c>
       <c r="F8">
-        <v>19.12849038243696</v>
+        <v>22.3089303710828</v>
       </c>
       <c r="G8">
-        <v>2.057053261792608</v>
+        <v>3.60907995853782</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.35277073077151</v>
+        <v>10.90240200941654</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.75354212967993</v>
+        <v>17.61721630954608</v>
       </c>
       <c r="O8">
-        <v>14.73920190638471</v>
+        <v>19.79162805832296</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.012353699399858</v>
+        <v>7.946768863479892</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.903158823460963</v>
+        <v>4.20243335136307</v>
       </c>
       <c r="E9">
-        <v>34.27375875087756</v>
+        <v>18.50108184575906</v>
       </c>
       <c r="F9">
-        <v>21.1120761888228</v>
+        <v>22.53044123864591</v>
       </c>
       <c r="G9">
-        <v>2.042632218840793</v>
+        <v>3.604012165563931</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.78619698641352</v>
+        <v>12.13063882264533</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28136310839937</v>
+        <v>17.47809472315244</v>
       </c>
       <c r="O9">
-        <v>15.76874640516457</v>
+        <v>19.79415351386078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.661644349544563</v>
+        <v>8.091487025110531</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.065204312959016</v>
+        <v>4.261743194632605</v>
       </c>
       <c r="E10">
-        <v>37.7490347684201</v>
+        <v>20.14690357292098</v>
       </c>
       <c r="F10">
-        <v>22.58198045596124</v>
+        <v>22.72789653665683</v>
       </c>
       <c r="G10">
-        <v>2.032397651773179</v>
+        <v>3.600620774166785</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.41549100648937</v>
+        <v>12.94965427811702</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.94682104784109</v>
+        <v>17.38469569216099</v>
       </c>
       <c r="O10">
-        <v>16.58712563737336</v>
+        <v>19.8244746395646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.972402899386775</v>
+        <v>8.158226950868196</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.136279848723227</v>
+        <v>4.288134941749049</v>
       </c>
       <c r="E11">
-        <v>39.27762564677293</v>
+        <v>20.85339670585262</v>
       </c>
       <c r="F11">
-        <v>23.25211938444784</v>
+        <v>22.82501835765207</v>
       </c>
       <c r="G11">
-        <v>2.027800807163131</v>
+        <v>3.599149186199192</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.12286630997459</v>
+        <v>13.30360008877161</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.79698778596937</v>
+        <v>17.34410179252936</v>
       </c>
       <c r="O11">
-        <v>16.97289275333215</v>
+        <v>19.84446108782143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.087633394736791</v>
+        <v>8.183607075612013</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.162798401830909</v>
+        <v>4.29804047605843</v>
       </c>
       <c r="E12">
-        <v>39.84953049609899</v>
+        <v>21.11489575662811</v>
       </c>
       <c r="F12">
-        <v>23.50604398585404</v>
+        <v>22.86282125739863</v>
       </c>
       <c r="G12">
-        <v>2.026066789031564</v>
+        <v>3.598602105548148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.38594131273159</v>
+        <v>13.43491743341628</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.74055933331716</v>
+        <v>17.32900093274502</v>
       </c>
       <c r="O12">
-        <v>17.12092678462244</v>
+        <v>19.85291917783449</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.062924805969143</v>
+        <v>8.17813661461752</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.157105028148258</v>
+        <v>4.295911135361726</v>
       </c>
       <c r="E13">
-        <v>39.72665908874638</v>
+        <v>21.05884511254096</v>
       </c>
       <c r="F13">
-        <v>23.4513501443043</v>
+        <v>22.85463455437178</v>
       </c>
       <c r="G13">
-        <v>2.026439972756223</v>
+        <v>3.59871947739699</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.32949529880481</v>
+        <v>13.40675709852061</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.75269888356417</v>
+        <v>17.33224113097534</v>
       </c>
       <c r="O13">
-        <v>17.08895776018086</v>
+        <v>19.85105803505283</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.981931854177745</v>
+        <v>8.160312974112074</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.13846957685488</v>
+        <v>4.28895167011619</v>
       </c>
       <c r="E14">
-        <v>39.32481206864811</v>
+        <v>20.87503113981786</v>
       </c>
       <c r="F14">
-        <v>23.2730069035354</v>
+        <v>22.82810803125664</v>
       </c>
       <c r="G14">
-        <v>2.027658024829095</v>
+        <v>3.599103973890935</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.14460525255139</v>
+        <v>13.31445822070801</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.7923393348343</v>
+        <v>17.34285400763075</v>
       </c>
       <c r="O14">
-        <v>16.98503233021054</v>
+        <v>19.84513911899469</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.932003534167952</v>
+        <v>8.149408747059073</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.127002757629874</v>
+        <v>4.284677166809076</v>
       </c>
       <c r="E15">
-        <v>39.07778405048667</v>
+        <v>20.76165489058002</v>
       </c>
       <c r="F15">
-        <v>23.16378621088421</v>
+        <v>22.8119924862328</v>
       </c>
       <c r="G15">
-        <v>2.028404934683667</v>
+        <v>3.599340812862025</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.03073291336684</v>
+        <v>13.25756808939565</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.81665978166058</v>
+        <v>17.34938998124679</v>
       </c>
       <c r="O15">
-        <v>16.9216299758195</v>
+        <v>19.84162942602791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.640991523503565</v>
+        <v>8.087141674248278</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.06050478778936</v>
+        <v>4.260006260162593</v>
       </c>
       <c r="E16">
-        <v>37.64813323448421</v>
+        <v>20.09988630735643</v>
       </c>
       <c r="F16">
-        <v>22.53820925536086</v>
+        <v>22.72169421394389</v>
       </c>
       <c r="G16">
-        <v>2.032699105349671</v>
+        <v>3.600718373219571</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.3685876296705</v>
+        <v>12.92614502835827</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.95665797453715</v>
+        <v>17.38738660764368</v>
       </c>
       <c r="O16">
-        <v>16.56218692017549</v>
+        <v>19.82329304694317</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.458075357084063</v>
+        <v>8.049158562774579</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.019022049386822</v>
+        <v>4.244717965411429</v>
       </c>
       <c r="E17">
-        <v>36.75808112696169</v>
+        <v>19.68312845239523</v>
       </c>
       <c r="F17">
-        <v>22.1547622335979</v>
+        <v>22.6681517072052</v>
       </c>
       <c r="G17">
-        <v>2.035347332316286</v>
+        <v>3.601581650461239</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.95376887207219</v>
+        <v>12.71802883638894</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.04312531285164</v>
+        <v>17.41118052395456</v>
       </c>
       <c r="O17">
-        <v>16.34513780772758</v>
+        <v>19.81363018426291</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.3512443657884</v>
+        <v>8.027398435220132</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.994914704966316</v>
+        <v>4.235869362987929</v>
       </c>
       <c r="E18">
-        <v>36.24118231543513</v>
+        <v>19.43944634971242</v>
       </c>
       <c r="F18">
-        <v>21.93435267436907</v>
+        <v>22.63804404945243</v>
       </c>
       <c r="G18">
-        <v>2.036876183662196</v>
+        <v>3.602084887210472</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.71198967227206</v>
+        <v>12.5965741115844</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.09308216892566</v>
+        <v>17.42504447543677</v>
       </c>
       <c r="O18">
-        <v>16.22156420727183</v>
+        <v>19.80865541805899</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.317579989985855</v>
+        <v>8.020046439384343</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.986710381697292</v>
+        <v>4.232864018651465</v>
       </c>
       <c r="E19">
-        <v>36.06529989351829</v>
+        <v>19.35625620772385</v>
       </c>
       <c r="F19">
-        <v>21.85975205440402</v>
+        <v>22.62796908833924</v>
       </c>
       <c r="G19">
-        <v>2.037394849470771</v>
+        <v>3.602256427426843</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.62957834241679</v>
+        <v>12.55515196216346</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.11003584665385</v>
+        <v>17.42976923337745</v>
       </c>
       <c r="O19">
-        <v>16.17994183214907</v>
+        <v>19.80707119908213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.477714806191743</v>
+        <v>8.053193119830754</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.023463705169638</v>
+        <v>4.246351169232693</v>
       </c>
       <c r="E20">
-        <v>36.85333846655941</v>
+        <v>19.72790408791418</v>
       </c>
       <c r="F20">
-        <v>22.19556697219819</v>
+        <v>22.67378030399727</v>
       </c>
       <c r="G20">
-        <v>2.03506485029121</v>
+        <v>3.601489059852396</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.99825638493925</v>
+        <v>12.74036474542276</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.03389782061981</v>
+        <v>17.40862917388367</v>
       </c>
       <c r="O20">
-        <v>16.36811185139431</v>
+        <v>19.8145984715365</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.005787623191967</v>
+        <v>8.165545485795477</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.143954139092012</v>
+        <v>4.29099826407838</v>
       </c>
       <c r="E21">
-        <v>39.44302758881761</v>
+        <v>20.92918526855625</v>
       </c>
       <c r="F21">
-        <v>23.32538656435679</v>
+        <v>22.83587190295759</v>
       </c>
       <c r="G21">
-        <v>2.027300086411555</v>
+        <v>3.598990762179606</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.19904138839461</v>
+        <v>13.34164254909762</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.78068778908475</v>
+        <v>17.33972939816544</v>
       </c>
       <c r="O21">
-        <v>17.01550456149103</v>
+        <v>19.84685351570232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.336664806661874</v>
+        <v>8.23958819355172</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.22038544102477</v>
+        <v>4.319660482818801</v>
       </c>
       <c r="E22">
-        <v>41.09541705043625</v>
+        <v>21.67913335804562</v>
       </c>
       <c r="F22">
-        <v>24.06471528685789</v>
+        <v>22.94776957632405</v>
       </c>
       <c r="G22">
-        <v>2.022263493426174</v>
+        <v>3.597417277956439</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.95593216682015</v>
+        <v>13.71878009587396</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.61699371589359</v>
+        <v>17.29627946893336</v>
       </c>
       <c r="O22">
-        <v>17.45001356498858</v>
+        <v>19.87311847132974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.161363368852598</v>
+        <v>8.200021680570833</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.179809678875646</v>
+        <v>4.304411478047277</v>
       </c>
       <c r="E23">
-        <v>40.21696409935532</v>
+        <v>21.28207789980837</v>
       </c>
       <c r="F23">
-        <v>23.67004271080695</v>
+        <v>22.88751087170661</v>
       </c>
       <c r="G23">
-        <v>2.024948764539487</v>
+        <v>3.59825166904152</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.55449056603983</v>
+        <v>13.51895322471954</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.70420602160008</v>
+        <v>17.31932531564457</v>
       </c>
       <c r="O23">
-        <v>17.21705530696704</v>
+        <v>19.85862657362876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.468841015262264</v>
+        <v>8.051368855382453</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.021456436069126</v>
+        <v>4.245612981729533</v>
       </c>
       <c r="E24">
-        <v>36.81028885098284</v>
+        <v>19.70767374232158</v>
       </c>
       <c r="F24">
-        <v>22.17711902295142</v>
+        <v>22.67123351197534</v>
       </c>
       <c r="G24">
-        <v>2.035192540503647</v>
+        <v>3.601530898483975</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.97815384649333</v>
+        <v>12.73027230344669</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.03806880268153</v>
+        <v>17.40978206438298</v>
       </c>
       <c r="O24">
-        <v>16.35772151556543</v>
+        <v>19.81415890033742</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.786325305619685</v>
+        <v>7.894433015970831</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.841261985167722</v>
+        <v>4.180095688618747</v>
       </c>
       <c r="E25">
-        <v>32.94401874396578</v>
+        <v>17.85734778435182</v>
       </c>
       <c r="F25">
-        <v>20.57268278296711</v>
+        <v>22.46434628144703</v>
       </c>
       <c r="G25">
-        <v>2.046464177584505</v>
+        <v>3.605324570467196</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.15587290830236</v>
+        <v>11.81279227956305</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.40682305161288</v>
+        <v>17.51417693264564</v>
       </c>
       <c r="O25">
-        <v>15.47931489563371</v>
+        <v>19.78847839052113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.782637532668057</v>
+        <v>7.275138652055767</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.130189461739612</v>
+        <v>3.701182980154635</v>
       </c>
       <c r="E2">
-        <v>16.52654179159011</v>
+        <v>29.91341394237084</v>
       </c>
       <c r="F2">
-        <v>22.33544634103874</v>
+        <v>19.40041633357095</v>
       </c>
       <c r="G2">
-        <v>3.608341058757886</v>
+        <v>2.055012734119812</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.08149156305305</v>
+        <v>17.70744652549754</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.59696812025692</v>
+        <v>11.68675963200918</v>
       </c>
       <c r="O2">
-        <v>19.7886948003225</v>
+        <v>14.87424818540807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.709626176934995</v>
+        <v>6.913787431615035</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.095399305861559</v>
+        <v>3.602026089151824</v>
       </c>
       <c r="E3">
-        <v>15.58699721510027</v>
+        <v>27.73656618020696</v>
       </c>
       <c r="F3">
-        <v>22.26299637456494</v>
+        <v>18.61485140049629</v>
       </c>
       <c r="G3">
-        <v>3.610525931659404</v>
+        <v>2.060987159042966</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.55227450858571</v>
+        <v>16.65895479814649</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.65680227979854</v>
+        <v>11.88219231356645</v>
       </c>
       <c r="O3">
-        <v>19.80072070309436</v>
+        <v>14.4903765174229</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.66628926026857</v>
+        <v>6.685278445713974</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.073585185786377</v>
+        <v>3.539209874762632</v>
       </c>
       <c r="E4">
-        <v>14.98516023932362</v>
+        <v>26.33686563017675</v>
       </c>
       <c r="F4">
-        <v>22.22593950654022</v>
+        <v>18.13829448992423</v>
       </c>
       <c r="G4">
-        <v>3.611937223591782</v>
+        <v>2.064752304378209</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.21127959792869</v>
+        <v>15.98228403004943</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.69538809553978</v>
+        <v>12.00515100329858</v>
       </c>
       <c r="O4">
-        <v>19.81393917279548</v>
+        <v>14.26764906021896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.649024257641219</v>
+        <v>6.590619872735968</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.064585785037426</v>
+        <v>3.51315035404212</v>
       </c>
       <c r="E5">
-        <v>14.7339012490767</v>
+        <v>25.75027225904678</v>
       </c>
       <c r="F5">
-        <v>22.21271560735728</v>
+        <v>17.9457884208835</v>
       </c>
       <c r="G5">
-        <v>3.612529941715195</v>
+        <v>2.066312008502317</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.06838083233162</v>
+        <v>15.69830629971916</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.71157799854197</v>
+        <v>12.05602222411025</v>
       </c>
       <c r="O5">
-        <v>19.82078864353196</v>
+        <v>14.18015164030056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.646181849195955</v>
+        <v>6.574813125045003</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.063084914304797</v>
+        <v>3.508796084386558</v>
       </c>
       <c r="E6">
-        <v>14.69182607629404</v>
+        <v>25.65188078871877</v>
       </c>
       <c r="F6">
-        <v>22.21063337945532</v>
+        <v>17.91393271821378</v>
       </c>
       <c r="G6">
-        <v>3.612629427202085</v>
+        <v>2.066572557733787</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.04441775160321</v>
+        <v>15.65065676502032</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.71429449613002</v>
+        <v>12.0645160897091</v>
       </c>
       <c r="O6">
-        <v>19.82201420140297</v>
+        <v>14.16581994038713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.666054792763623</v>
+        <v>6.684007892731753</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.073464256823239</v>
+        <v>3.53886026102495</v>
       </c>
       <c r="E7">
-        <v>14.98179559437641</v>
+        <v>26.32902066479413</v>
       </c>
       <c r="F7">
-        <v>22.22575355396352</v>
+        <v>18.13569109065235</v>
       </c>
       <c r="G7">
-        <v>3.61194514583239</v>
+        <v>2.064773235029755</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.20936823069637</v>
+        <v>15.97848745060007</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.69560455019635</v>
+        <v>12.00583394922459</v>
       </c>
       <c r="O7">
-        <v>19.81402563060763</v>
+        <v>14.26645581761181</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.757165623521593</v>
+        <v>7.15199399565693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.118290118392514</v>
+        <v>3.667409263343515</v>
       </c>
       <c r="E8">
-        <v>16.20791151230536</v>
+        <v>29.17572596160965</v>
       </c>
       <c r="F8">
-        <v>22.3089303710828</v>
+        <v>19.12849038243677</v>
       </c>
       <c r="G8">
-        <v>3.60907995853782</v>
+        <v>2.057053261792607</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.90240200941654</v>
+        <v>17.35277073077163</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.61721630954608</v>
+        <v>11.75354212967987</v>
       </c>
       <c r="O8">
-        <v>19.79162805832296</v>
+        <v>14.73920190638455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.946768863479892</v>
+        <v>8.012353699399842</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.20243335136307</v>
+        <v>3.90315882346098</v>
       </c>
       <c r="E9">
-        <v>18.50108184575906</v>
+        <v>34.27375875087761</v>
       </c>
       <c r="F9">
-        <v>22.53044123864591</v>
+        <v>21.11207618882274</v>
       </c>
       <c r="G9">
-        <v>3.604012165563931</v>
+        <v>2.042632218840926</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.13063882264533</v>
+        <v>19.78619698641359</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.47809472315244</v>
+        <v>11.28136310839934</v>
       </c>
       <c r="O9">
-        <v>19.79415351386078</v>
+        <v>15.7687464051645</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.091487025110531</v>
+        <v>8.661644349544588</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.261743194632605</v>
+        <v>4.065204312959095</v>
       </c>
       <c r="E10">
-        <v>20.14690357292098</v>
+        <v>37.74903476842016</v>
       </c>
       <c r="F10">
-        <v>22.72789653665683</v>
+        <v>22.58198045596124</v>
       </c>
       <c r="G10">
-        <v>3.600620774166785</v>
+        <v>2.03239765177318</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.94965427811702</v>
+        <v>21.4154910064894</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.38469569216099</v>
+        <v>10.94682104784112</v>
       </c>
       <c r="O10">
-        <v>19.8244746395646</v>
+        <v>16.58712563737336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.158226950868196</v>
+        <v>8.972402899386774</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.288134941749049</v>
+        <v>4.136279848723227</v>
       </c>
       <c r="E11">
-        <v>20.85339670585262</v>
+        <v>39.2776256467729</v>
       </c>
       <c r="F11">
-        <v>22.82501835765207</v>
+        <v>23.25211938444782</v>
       </c>
       <c r="G11">
-        <v>3.599149186199192</v>
+        <v>2.027800807163131</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.30360008877161</v>
+        <v>22.12286630997459</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.34410179252936</v>
+        <v>10.79698778596931</v>
       </c>
       <c r="O11">
-        <v>19.84446108782143</v>
+        <v>16.97289275333212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.183607075612013</v>
+        <v>9.087633394736775</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.29804047605843</v>
+        <v>4.162798401830985</v>
       </c>
       <c r="E12">
-        <v>21.11489575662811</v>
+        <v>39.84953049609901</v>
       </c>
       <c r="F12">
-        <v>22.86282125739863</v>
+        <v>23.50604398585403</v>
       </c>
       <c r="G12">
-        <v>3.598602105548148</v>
+        <v>2.0260667890313</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.43491743341628</v>
+        <v>22.38594131273163</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.32900093274502</v>
+        <v>10.7405593333171</v>
       </c>
       <c r="O12">
-        <v>19.85291917783449</v>
+        <v>17.12092678462239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.17813661461752</v>
+        <v>9.062924805969185</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.295911135361726</v>
+        <v>4.157105028148295</v>
       </c>
       <c r="E13">
-        <v>21.05884511254096</v>
+        <v>39.72665908874654</v>
       </c>
       <c r="F13">
-        <v>22.85463455437178</v>
+        <v>23.45135014430427</v>
       </c>
       <c r="G13">
-        <v>3.59871947739699</v>
+        <v>2.026439972756089</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.40675709852061</v>
+        <v>22.32949529880489</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.33224113097534</v>
+        <v>10.75269888356404</v>
       </c>
       <c r="O13">
-        <v>19.85105803505283</v>
+        <v>17.08895776018078</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.160312974112074</v>
+        <v>8.981931854177729</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.28895167011619</v>
+        <v>4.138469576854925</v>
       </c>
       <c r="E14">
-        <v>20.87503113981786</v>
+        <v>39.32481206864814</v>
       </c>
       <c r="F14">
-        <v>22.82810803125664</v>
+        <v>23.27300690353539</v>
       </c>
       <c r="G14">
-        <v>3.599103973890935</v>
+        <v>2.027658024828962</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.31445822070801</v>
+        <v>22.1446052525514</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.34285400763075</v>
+        <v>10.79233933483427</v>
       </c>
       <c r="O14">
-        <v>19.84513911899469</v>
+        <v>16.98503233021051</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.149408747059073</v>
+        <v>8.932003534167928</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.284677166809076</v>
+        <v>4.127002757629962</v>
       </c>
       <c r="E15">
-        <v>20.76165489058002</v>
+        <v>39.07778405048677</v>
       </c>
       <c r="F15">
-        <v>22.8119924862328</v>
+        <v>23.16378621088417</v>
       </c>
       <c r="G15">
-        <v>3.599340812862025</v>
+        <v>2.028404934683667</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.25756808939565</v>
+        <v>22.03073291336687</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.34938998124679</v>
+        <v>10.81665978166052</v>
       </c>
       <c r="O15">
-        <v>19.84162942602791</v>
+        <v>16.92162997581944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.087141674248278</v>
+        <v>8.640991523503523</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.260006260162593</v>
+        <v>4.060504787789469</v>
       </c>
       <c r="E16">
-        <v>20.09988630735643</v>
+        <v>37.64813323448423</v>
       </c>
       <c r="F16">
-        <v>22.72169421394389</v>
+        <v>22.53820925536079</v>
       </c>
       <c r="G16">
-        <v>3.600718373219571</v>
+        <v>2.032699105349937</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.92614502835827</v>
+        <v>21.36858762967054</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.38738660764368</v>
+        <v>10.95665797453712</v>
       </c>
       <c r="O16">
-        <v>19.82329304694317</v>
+        <v>16.56218692017541</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.049158562774579</v>
+        <v>8.458075357084116</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.244717965411429</v>
+        <v>4.019022049386887</v>
       </c>
       <c r="E17">
-        <v>19.68312845239523</v>
+        <v>36.75808112696171</v>
       </c>
       <c r="F17">
-        <v>22.6681517072052</v>
+        <v>22.15476223359788</v>
       </c>
       <c r="G17">
-        <v>3.601581650461239</v>
+        <v>2.035347332316021</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.71802883638894</v>
+        <v>20.95376887207223</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.41118052395456</v>
+        <v>11.04312531285161</v>
       </c>
       <c r="O17">
-        <v>19.81363018426291</v>
+        <v>16.34513780772752</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.027398435220132</v>
+        <v>8.351244365788368</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.235869362987929</v>
+        <v>3.994914704966515</v>
       </c>
       <c r="E18">
-        <v>19.43944634971242</v>
+        <v>36.24118231543514</v>
       </c>
       <c r="F18">
-        <v>22.63804404945243</v>
+        <v>21.93435267436903</v>
       </c>
       <c r="G18">
-        <v>3.602084887210472</v>
+        <v>2.036876183662199</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.5965741115844</v>
+        <v>20.711989672272</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.42504447543677</v>
+        <v>11.09308216892563</v>
       </c>
       <c r="O18">
-        <v>19.80865541805899</v>
+        <v>16.22156420727182</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.020046439384343</v>
+        <v>8.31757998998583</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.232864018651465</v>
+        <v>3.986710381697297</v>
       </c>
       <c r="E19">
-        <v>19.35625620772385</v>
+        <v>36.06529989351827</v>
       </c>
       <c r="F19">
-        <v>22.62796908833924</v>
+        <v>21.85975205440396</v>
       </c>
       <c r="G19">
-        <v>3.602256427426843</v>
+        <v>2.037394849470505</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.55515196216346</v>
+        <v>20.62957834241686</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.42976923337745</v>
+        <v>11.11003584665381</v>
       </c>
       <c r="O19">
-        <v>19.80707119908213</v>
+        <v>16.17994183214898</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.053193119830754</v>
+        <v>8.477714806191724</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.246351169232693</v>
+        <v>4.023463705169712</v>
       </c>
       <c r="E20">
-        <v>19.72790408791418</v>
+        <v>36.85333846655934</v>
       </c>
       <c r="F20">
-        <v>22.67378030399727</v>
+        <v>22.19556697219813</v>
       </c>
       <c r="G20">
-        <v>3.601489059852396</v>
+        <v>2.035064850290942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.74036474542276</v>
+        <v>20.99825638493928</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.40862917388367</v>
+        <v>11.03389782061975</v>
       </c>
       <c r="O20">
-        <v>19.8145984715365</v>
+        <v>16.36811185139425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.165545485795477</v>
+        <v>9.005787623191942</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.29099826407838</v>
+        <v>4.143954139092024</v>
       </c>
       <c r="E21">
-        <v>20.92918526855625</v>
+        <v>39.44302758881758</v>
       </c>
       <c r="F21">
-        <v>22.83587190295759</v>
+        <v>23.32538656435678</v>
       </c>
       <c r="G21">
-        <v>3.598990762179606</v>
+        <v>2.027300086411556</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.34164254909762</v>
+        <v>22.19904138839462</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.33972939816544</v>
+        <v>10.78068778908479</v>
       </c>
       <c r="O21">
-        <v>19.84685351570232</v>
+        <v>17.01550456149102</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.23958819355172</v>
+        <v>9.336664806661858</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.319660482818801</v>
+        <v>4.220385441024776</v>
       </c>
       <c r="E22">
-        <v>21.67913335804562</v>
+        <v>41.09541705043635</v>
       </c>
       <c r="F22">
-        <v>22.94776957632405</v>
+        <v>24.06471528685784</v>
       </c>
       <c r="G22">
-        <v>3.597417277956439</v>
+        <v>2.02226349342604</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.71878009587396</v>
+        <v>22.95593216682019</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.29627946893336</v>
+        <v>10.61699371589356</v>
       </c>
       <c r="O22">
-        <v>19.87311847132974</v>
+        <v>17.45001356498851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.200021680570833</v>
+        <v>9.161363368852653</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.304411478047277</v>
+        <v>4.17980967887569</v>
       </c>
       <c r="E23">
-        <v>21.28207789980837</v>
+        <v>40.21696409935524</v>
       </c>
       <c r="F23">
-        <v>22.88751087170661</v>
+        <v>23.67004271080692</v>
       </c>
       <c r="G23">
-        <v>3.59825166904152</v>
+        <v>2.024948764539486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.51895322471954</v>
+        <v>22.55449056603985</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.31932531564457</v>
+        <v>10.70420602160009</v>
       </c>
       <c r="O23">
-        <v>19.85862657362876</v>
+        <v>17.217055306967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.051368855382453</v>
+        <v>8.46884101526221</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.245612981729533</v>
+        <v>4.021456436069185</v>
       </c>
       <c r="E24">
-        <v>19.70767374232158</v>
+        <v>36.81028885098279</v>
       </c>
       <c r="F24">
-        <v>22.67123351197534</v>
+        <v>22.1771190229514</v>
       </c>
       <c r="G24">
-        <v>3.601530898483975</v>
+        <v>2.035192540503646</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.73027230344669</v>
+        <v>20.97815384649338</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.40978206438298</v>
+        <v>11.0380688026815</v>
       </c>
       <c r="O24">
-        <v>19.81415890033742</v>
+        <v>16.35772151556539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.894433015970831</v>
+        <v>7.786325305619687</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.180095688618747</v>
+        <v>3.841261985167967</v>
       </c>
       <c r="E25">
-        <v>17.85734778435182</v>
+        <v>32.94401874396587</v>
       </c>
       <c r="F25">
-        <v>22.46434628144703</v>
+        <v>20.57268278296701</v>
       </c>
       <c r="G25">
-        <v>3.605324570467196</v>
+        <v>2.046464177584637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.81279227956305</v>
+        <v>19.15587290830238</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.51417693264564</v>
+        <v>11.40682305161285</v>
       </c>
       <c r="O25">
-        <v>19.78847839052113</v>
+        <v>15.47931489563363</v>
       </c>
     </row>
   </sheetData>
